--- a/docss/trend/croatia/E_neuron.xlsx
+++ b/docss/trend/croatia/E_neuron.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\croatia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\croatia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -232,9 +232,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1580,7 +1577,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,182 +1600,182 @@
       <c r="A2">
         <v>2002</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.76328815147280693</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.99545249342918396</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.53980040177702904</v>
+      <c r="B2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.995</v>
+      </c>
+      <c r="D2">
+        <v>0.54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2003</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.60299877170473337</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.59177137166261673</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.59563912823796272</v>
+      <c r="B3">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="C3">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.59599999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2004</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.74652595445513725</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1.2962917611002922</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.32778508961200714</v>
+      <c r="B4">
+        <v>0.747</v>
+      </c>
+      <c r="C4">
+        <v>1.296</v>
+      </c>
+      <c r="D4">
+        <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2005</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.62487572059035301</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1.0700548738241196</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.27132216095924377</v>
+      <c r="B5">
+        <v>0.625</v>
+      </c>
+      <c r="C5">
+        <v>1.07</v>
+      </c>
+      <c r="D5">
+        <v>0.27100000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2006</v>
       </c>
-      <c r="B6" s="5">
-        <v>0.65750032663345337</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.81584126502275467</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.51153355836868286</v>
+      <c r="B6">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2007</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.44480024930089712</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.37586409971117973</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.49052292201668024</v>
+      <c r="B7">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.376</v>
+      </c>
+      <c r="D7">
+        <v>0.49099999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2008</v>
       </c>
-      <c r="B8" s="5">
-        <v>0.59225819073617458</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.71795853599905968</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.53600039705634117</v>
+      <c r="B8">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="C8">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="D8">
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2009</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.71054995246231556</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.9804791621863842</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.49406949058175087</v>
+      <c r="B9">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="C9">
+        <v>0.98</v>
+      </c>
+      <c r="D9">
+        <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2010</v>
       </c>
-      <c r="B10" s="5">
-        <v>0.54946503322571516</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.63410463556647301</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.45883449167013168</v>
+      <c r="B10">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="C10">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
-      <c r="B11" s="5">
-        <v>0.64505279995501041</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.74809408187866211</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.5668303444981575</v>
+      <c r="B11">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.748</v>
+      </c>
+      <c r="D11">
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2012</v>
       </c>
-      <c r="B12" s="5">
-        <v>0.67612194269895554</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.67562591657042503</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.7371400399133563</v>
+      <c r="B12">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="C12">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="D12">
+        <v>0.73699999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2013</v>
       </c>
-      <c r="B13" s="5">
-        <v>0.85183530859649181</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.91351132094860077</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.78260214533656836</v>
+      <c r="B13">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="D13">
+        <v>0.78300000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2014</v>
       </c>
-      <c r="B14" s="5">
-        <v>0.74897884018719196</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.88967690616846085</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.64427562989294529</v>
+      <c r="B14">
+        <v>0.749</v>
+      </c>
+      <c r="C14">
+        <v>0.89</v>
+      </c>
+      <c r="D14">
+        <v>0.64400000000000002</v>
       </c>
     </row>
   </sheetData>
